--- a/Code/Results/Cases/Case_0_190/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_190/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9537971171499723</v>
+        <v>1.007517189882853</v>
       </c>
       <c r="D2">
-        <v>0.9626915382724373</v>
+        <v>1.010163023887673</v>
       </c>
       <c r="E2">
-        <v>0.9663331833500379</v>
+        <v>1.010173097929085</v>
       </c>
       <c r="F2">
-        <v>0.9280223635356761</v>
+        <v>1.005706564766229</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.9774533881121105</v>
+        <v>1.012788370573424</v>
       </c>
       <c r="K2">
-        <v>0.9746963279527375</v>
+        <v>1.013034046953649</v>
       </c>
       <c r="L2">
-        <v>0.9782823679263923</v>
+        <v>1.013044090525428</v>
       </c>
       <c r="M2">
-        <v>0.94058470497722</v>
+        <v>1.008591131989706</v>
       </c>
       <c r="N2">
-        <v>0.9959467723440665</v>
+        <v>1.008322484023764</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9600648028843319</v>
+        <v>1.008777202253876</v>
       </c>
       <c r="D3">
-        <v>0.9682312821963862</v>
+        <v>1.011333579330225</v>
       </c>
       <c r="E3">
-        <v>0.9714350341267635</v>
+        <v>1.011251613067968</v>
       </c>
       <c r="F3">
-        <v>0.9373354692858984</v>
+        <v>1.007621938967665</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>0.9817066865569072</v>
+        <v>1.013678231869978</v>
       </c>
       <c r="K3">
-        <v>0.9792874618992016</v>
+        <v>1.014007589187392</v>
       </c>
       <c r="L3">
-        <v>0.9824469443727203</v>
+        <v>1.013925852672849</v>
       </c>
       <c r="M3">
-        <v>0.9488383330197356</v>
+        <v>1.010306393046803</v>
       </c>
       <c r="N3">
-        <v>0.9974524023253389</v>
+        <v>1.008628179638942</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9640058749637742</v>
+        <v>1.009591924433953</v>
       </c>
       <c r="D4">
-        <v>0.9717207995481802</v>
+        <v>1.012090770948062</v>
       </c>
       <c r="E4">
-        <v>0.9746501524728309</v>
+        <v>1.011949264209806</v>
       </c>
       <c r="F4">
-        <v>0.943169173799733</v>
+        <v>1.008860251563744</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9843773869455734</v>
+        <v>1.014253038152566</v>
       </c>
       <c r="K4">
-        <v>0.9821729530360942</v>
+        <v>1.014636742348009</v>
       </c>
       <c r="L4">
-        <v>0.985064472872404</v>
+        <v>1.014495612020765</v>
       </c>
       <c r="M4">
-        <v>0.9540056041810359</v>
+        <v>1.011414844666994</v>
       </c>
       <c r="N4">
-        <v>0.9983965650709837</v>
+        <v>1.008825338359081</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9656368068157775</v>
+        <v>1.009934297215639</v>
       </c>
       <c r="D5">
-        <v>0.9731662866461724</v>
+        <v>1.012409041674543</v>
       </c>
       <c r="E5">
-        <v>0.9759822838509854</v>
+        <v>1.012242507248352</v>
       </c>
       <c r="F5">
-        <v>0.9455786675681235</v>
+        <v>1.009380597362823</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>0.9854816838371553</v>
+        <v>1.014494452321081</v>
       </c>
       <c r="K5">
-        <v>0.9833666927835213</v>
+        <v>1.014901051889395</v>
       </c>
       <c r="L5">
-        <v>0.9861473667712831</v>
+        <v>1.014734950459729</v>
       </c>
       <c r="M5">
-        <v>0.9561391117599349</v>
+        <v>1.011880505766299</v>
       </c>
       <c r="N5">
-        <v>0.9987866381460084</v>
+        <v>1.008908069990505</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9659091709379644</v>
+        <v>1.00999177525264</v>
       </c>
       <c r="D6">
-        <v>0.9734077636447829</v>
+        <v>1.012462477755981</v>
       </c>
       <c r="E6">
-        <v>0.9762048414548714</v>
+        <v>1.012291741235623</v>
       </c>
       <c r="F6">
-        <v>0.9459807950915088</v>
+        <v>1.009467951983473</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9856660458366665</v>
+        <v>1.014534973177195</v>
       </c>
       <c r="K6">
-        <v>0.983566024068965</v>
+        <v>1.014945419794748</v>
       </c>
       <c r="L6">
-        <v>0.9863281891105301</v>
+        <v>1.014775125478151</v>
       </c>
       <c r="M6">
-        <v>0.956495134536791</v>
+        <v>1.011958673196528</v>
       </c>
       <c r="N6">
-        <v>0.9988517408451795</v>
+        <v>1.00892195199838</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9640277673819011</v>
+        <v>1.009596499765874</v>
       </c>
       <c r="D7">
-        <v>0.9717401971424308</v>
+        <v>1.012095023899101</v>
       </c>
       <c r="E7">
-        <v>0.9746680277135124</v>
+        <v>1.011953182728163</v>
       </c>
       <c r="F7">
-        <v>0.9432015346588893</v>
+        <v>1.008867205379284</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>0.9843922138652228</v>
+        <v>1.014256264857257</v>
       </c>
       <c r="K7">
-        <v>0.9821889783832896</v>
+        <v>1.014640274793233</v>
       </c>
       <c r="L7">
-        <v>0.9850790101492171</v>
+        <v>1.014498810809175</v>
       </c>
       <c r="M7">
-        <v>0.9540342613559872</v>
+        <v>1.01142106814292</v>
       </c>
       <c r="N7">
-        <v>0.9984018037352065</v>
+        <v>1.008826444426729</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.955939988538955</v>
+        <v>1.007943142064123</v>
       </c>
       <c r="D8">
-        <v>0.9645841944612136</v>
+        <v>1.010558669789743</v>
       </c>
       <c r="E8">
-        <v>0.9680759102850738</v>
+        <v>1.010537634729582</v>
       </c>
       <c r="F8">
-        <v>0.9312115887384302</v>
+        <v>1.006354102649742</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9789083332406546</v>
+        <v>1.013089311152642</v>
       </c>
       <c r="K8">
-        <v>0.9762662712700083</v>
+        <v>1.013363226625048</v>
       </c>
       <c r="L8">
-        <v>0.9797064111034652</v>
+        <v>1.01334225360938</v>
       </c>
       <c r="M8">
-        <v>0.9434116643299059</v>
+        <v>1.009171117304427</v>
       </c>
       <c r="N8">
-        <v>0.9964620550533293</v>
+        <v>1.008425929781417</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9407347452529077</v>
+        <v>1.005024977690948</v>
       </c>
       <c r="D9">
-        <v>0.9511836520921153</v>
+        <v>1.007849435501134</v>
       </c>
       <c r="E9">
-        <v>0.9557445964462812</v>
+        <v>1.008041425703835</v>
       </c>
       <c r="F9">
-        <v>0.9084521315412071</v>
+        <v>1.001916947197381</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9685690710358474</v>
+        <v>1.011025225612804</v>
       </c>
       <c r="K9">
-        <v>0.9651217195819847</v>
+        <v>1.011106664175804</v>
       </c>
       <c r="L9">
-        <v>0.9695989578122366</v>
+        <v>1.011297989151956</v>
       </c>
       <c r="M9">
-        <v>0.9232284206858135</v>
+        <v>1.00519486974853</v>
       </c>
       <c r="N9">
-        <v>0.9927961377247759</v>
+        <v>1.007715175401641</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9298357956798606</v>
+        <v>1.003076043972148</v>
       </c>
       <c r="D10">
-        <v>0.9416189554412888</v>
+        <v>1.006041700691044</v>
       </c>
       <c r="E10">
-        <v>0.9469548441013137</v>
+        <v>1.006375848360975</v>
       </c>
       <c r="F10">
-        <v>0.8919267070123278</v>
+        <v>0.9989521099072133</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9611390254980116</v>
+        <v>1.009643729766757</v>
       </c>
       <c r="K10">
-        <v>0.9571288604573657</v>
+        <v>1.009597866282022</v>
       </c>
       <c r="L10">
-        <v>0.9623527771797747</v>
+        <v>1.009930740491634</v>
       </c>
       <c r="M10">
-        <v>0.9085660682437211</v>
+        <v>1.002535517254903</v>
       </c>
       <c r="N10">
-        <v>0.9901578250515646</v>
+        <v>1.007237918939261</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9249035306098314</v>
+        <v>1.002231237537959</v>
       </c>
       <c r="D11">
-        <v>0.9373012847178765</v>
+        <v>1.005258501728547</v>
       </c>
       <c r="E11">
-        <v>0.9429905046023069</v>
+        <v>1.005654247396487</v>
       </c>
       <c r="F11">
-        <v>0.8843801549781135</v>
+        <v>0.9976665156659683</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9577722577961626</v>
+        <v>1.009044187569629</v>
       </c>
       <c r="K11">
-        <v>0.9535110800142934</v>
+        <v>1.008943439922908</v>
       </c>
       <c r="L11">
-        <v>0.9590740403655157</v>
+        <v>1.009337617796226</v>
       </c>
       <c r="M11">
-        <v>0.9018701341497575</v>
+        <v>1.001381798509034</v>
       </c>
       <c r="N11">
-        <v>0.9889619150094547</v>
+        <v>1.007030436511823</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9230362601162747</v>
+        <v>1.001917296819953</v>
       </c>
       <c r="D12">
-        <v>0.9356684125822402</v>
+        <v>1.004967516128487</v>
       </c>
       <c r="E12">
-        <v>0.941491852682505</v>
+        <v>1.005386149240515</v>
       </c>
       <c r="F12">
-        <v>0.8815110840514605</v>
+        <v>0.9971887018993026</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.956497013214141</v>
+        <v>1.008821284461941</v>
       </c>
       <c r="K12">
-        <v>0.9521413864015019</v>
+        <v>1.008700186052415</v>
       </c>
       <c r="L12">
-        <v>0.9578329090683233</v>
+        <v>1.009117137245418</v>
       </c>
       <c r="M12">
-        <v>0.8993245931356875</v>
+        <v>1.000952910667623</v>
       </c>
       <c r="N12">
-        <v>0.9885089209977198</v>
+        <v>1.006953242781246</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9234384459628693</v>
+        <v>1.001984644691728</v>
       </c>
       <c r="D13">
-        <v>0.9360200325516903</v>
+        <v>1.005029936802072</v>
       </c>
       <c r="E13">
-        <v>0.9418145417863305</v>
+        <v>1.005443660141311</v>
       </c>
       <c r="F13">
-        <v>0.8821296230765689</v>
+        <v>0.997291207817982</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9567717134030771</v>
+        <v>1.008869107346712</v>
       </c>
       <c r="K13">
-        <v>0.9524364030449003</v>
+        <v>1.008752372633972</v>
       </c>
       <c r="L13">
-        <v>0.9581002251289246</v>
+        <v>1.009164438753571</v>
       </c>
       <c r="M13">
-        <v>0.8998733735299059</v>
+        <v>1.001044924427577</v>
       </c>
       <c r="N13">
-        <v>0.9886065001707752</v>
+        <v>1.006969806798484</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.924749919937993</v>
+        <v>1.002205290031676</v>
       </c>
       <c r="D14">
-        <v>0.9371669212209556</v>
+        <v>1.005234450237169</v>
       </c>
       <c r="E14">
-        <v>0.9428671731116335</v>
+        <v>1.005632087636969</v>
       </c>
       <c r="F14">
-        <v>0.8841443880827133</v>
+        <v>0.9976270253773073</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9576673630799288</v>
+        <v>1.009025766565623</v>
       </c>
       <c r="K14">
-        <v>0.9533984035391396</v>
+        <v>1.00892333599205</v>
       </c>
       <c r="L14">
-        <v>0.9589719356438153</v>
+        <v>1.009319396262326</v>
       </c>
       <c r="M14">
-        <v>0.9016609495565517</v>
+        <v>1.001346353635605</v>
       </c>
       <c r="N14">
-        <v>0.9889246541694631</v>
+        <v>1.007024058221722</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9255531928686936</v>
+        <v>1.002341217912532</v>
       </c>
       <c r="D15">
-        <v>0.9378696159891885</v>
+        <v>1.005360448208953</v>
       </c>
       <c r="E15">
-        <v>0.9435121973164946</v>
+        <v>1.005748175508192</v>
       </c>
       <c r="F15">
-        <v>0.8853767761400864</v>
+        <v>0.9978338951597572</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9582158605661247</v>
+        <v>1.009122261995733</v>
       </c>
       <c r="K15">
-        <v>0.9539876177453114</v>
+        <v>1.00902864939447</v>
       </c>
       <c r="L15">
-        <v>0.9595058758140309</v>
+        <v>1.009414848270602</v>
       </c>
       <c r="M15">
-        <v>0.9027543947474583</v>
+        <v>1.001532027921628</v>
       </c>
       <c r="N15">
-        <v>0.9891194918930231</v>
+        <v>1.007057467644408</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9301583832888222</v>
+        <v>1.003132091409819</v>
       </c>
       <c r="D16">
-        <v>0.94190157807379</v>
+        <v>1.006093669388492</v>
       </c>
       <c r="E16">
-        <v>0.9472144169417005</v>
+        <v>1.00642372997058</v>
       </c>
       <c r="F16">
-        <v>0.8924187219687727</v>
+        <v>0.9990373912417067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9613591350449329</v>
+        <v>1.00968349069489</v>
       </c>
       <c r="K16">
-        <v>0.9573654655177253</v>
+        <v>1.009641274701102</v>
       </c>
       <c r="L16">
-        <v>0.9625672339840761</v>
+        <v>1.009970080692238</v>
       </c>
       <c r="M16">
-        <v>0.9090026347793054</v>
+        <v>1.002612038143036</v>
       </c>
       <c r="N16">
-        <v>0.9902360055535712</v>
+        <v>1.007251671330573</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9329879561640481</v>
+        <v>1.003627938879378</v>
       </c>
       <c r="D17">
-        <v>0.9443818272699632</v>
+        <v>1.006553479023196</v>
       </c>
       <c r="E17">
-        <v>0.9494927887325706</v>
+        <v>1.006847378814025</v>
       </c>
       <c r="F17">
-        <v>0.8967265604944004</v>
+        <v>0.9997918190738039</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9632893353390771</v>
+        <v>1.010035171399794</v>
       </c>
       <c r="K17">
-        <v>0.9594407745807576</v>
+        <v>1.010025258865606</v>
       </c>
       <c r="L17">
-        <v>0.964448402021539</v>
+        <v>1.010318067441776</v>
       </c>
       <c r="M17">
-        <v>0.9128249912049929</v>
+        <v>1.003288900350847</v>
       </c>
       <c r="N17">
-        <v>0.9909215501566937</v>
+        <v>1.007373267829813</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.934618091589147</v>
+        <v>1.003917071380771</v>
       </c>
       <c r="D18">
-        <v>0.945811721226263</v>
+        <v>1.00682163628692</v>
       </c>
       <c r="E18">
-        <v>0.9508066230603358</v>
+        <v>1.007094448185242</v>
       </c>
       <c r="F18">
-        <v>0.8992020764573722</v>
+        <v>1.000231691490648</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9644009286640465</v>
+        <v>1.010240171289094</v>
       </c>
       <c r="K18">
-        <v>0.9606363103976787</v>
+        <v>1.010249123836221</v>
       </c>
       <c r="L18">
-        <v>0.9655321963202075</v>
+        <v>1.010520936836497</v>
       </c>
       <c r="M18">
-        <v>0.9150214943211065</v>
+        <v>1.003683491195755</v>
       </c>
       <c r="N18">
-        <v>0.9913163098439062</v>
+        <v>1.007444113279416</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9351705715859688</v>
+        <v>1.004015643525776</v>
       </c>
       <c r="D19">
-        <v>0.9462965038063217</v>
+        <v>1.006913064020034</v>
       </c>
       <c r="E19">
-        <v>0.9512521107316969</v>
+        <v>1.007178686161864</v>
       </c>
       <c r="F19">
-        <v>0.9000400579721098</v>
+        <v>1.000381647839342</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9647775966426724</v>
+        <v>1.010310049115234</v>
       </c>
       <c r="K19">
-        <v>0.9610414855829977</v>
+        <v>1.010325438077179</v>
       </c>
       <c r="L19">
-        <v>0.9658995171916925</v>
+        <v>1.010590092297764</v>
       </c>
       <c r="M19">
-        <v>0.9157650185012778</v>
+        <v>1.003818001053591</v>
       </c>
       <c r="N19">
-        <v>0.9914500672773804</v>
+        <v>1.007468256260234</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9326864919445749</v>
+        <v>1.003574748174463</v>
       </c>
       <c r="D20">
-        <v>0.9441174749066903</v>
+        <v>1.006504150171866</v>
       </c>
       <c r="E20">
-        <v>0.9492499188191134</v>
+        <v>1.006801929245292</v>
       </c>
       <c r="F20">
-        <v>0.8962682634790603</v>
+        <v>0.9997108940757602</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.963083733054482</v>
+        <v>1.009997452816174</v>
       </c>
       <c r="K20">
-        <v>0.9592196763650745</v>
+        <v>1.009984072046662</v>
       </c>
       <c r="L20">
-        <v>0.964247976612175</v>
+        <v>1.010280742685765</v>
       </c>
       <c r="M20">
-        <v>0.9124183449660415</v>
+        <v>1.003216301416195</v>
       </c>
       <c r="N20">
-        <v>0.9908485309528743</v>
+        <v>1.007360229932181</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9243647236178938</v>
+        <v>1.002140319446499</v>
       </c>
       <c r="D21">
-        <v>0.9368300174668021</v>
+        <v>1.005174228116869</v>
       </c>
       <c r="E21">
-        <v>0.9425579409069328</v>
+        <v>1.005576602219859</v>
       </c>
       <c r="F21">
-        <v>0.8835529745674848</v>
+        <v>0.9975281435260565</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9574043172380797</v>
+        <v>1.008979640063875</v>
       </c>
       <c r="K21">
-        <v>0.9531158534700632</v>
+        <v>1.008872996294841</v>
       </c>
       <c r="L21">
-        <v>0.9587158989000074</v>
+        <v>1.009273769817298</v>
       </c>
       <c r="M21">
-        <v>0.9011362197293876</v>
+        <v>1.001257599897156</v>
       </c>
       <c r="N21">
-        <v>0.9888312146204858</v>
+        <v>1.007008086004692</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9189268411737775</v>
+        <v>1.001237612647247</v>
       </c>
       <c r="D22">
-        <v>0.9320781493052721</v>
+        <v>1.004337642242208</v>
       </c>
       <c r="E22">
-        <v>0.9381978887064568</v>
+        <v>1.004805821458388</v>
       </c>
       <c r="F22">
-        <v>0.8751722870297112</v>
+        <v>0.9961540939351058</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9536893144221935</v>
+        <v>1.00833850422362</v>
       </c>
       <c r="K22">
-        <v>0.9491269307944677</v>
+        <v>1.008173428531071</v>
       </c>
       <c r="L22">
-        <v>0.9551018128882205</v>
+        <v>1.008639669918192</v>
       </c>
       <c r="M22">
-        <v>0.8937010582421507</v>
+        <v>1.000024081236138</v>
       </c>
       <c r="N22">
-        <v>0.9875115978922938</v>
+        <v>1.006785952305349</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9218302613229783</v>
+        <v>1.001716234765744</v>
       </c>
       <c r="D23">
-        <v>0.9346143021411065</v>
+        <v>1.004781172838824</v>
       </c>
       <c r="E23">
-        <v>0.9405245663640193</v>
+        <v>1.005214463276155</v>
       </c>
       <c r="F23">
-        <v>0.8796543935683192</v>
+        <v>0.9968826672004006</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9556731999240302</v>
+        <v>1.008678497332355</v>
       </c>
       <c r="K23">
-        <v>0.9512567392546485</v>
+        <v>1.008544378016596</v>
       </c>
       <c r="L23">
-        <v>0.95703135842618</v>
+        <v>1.00897591209132</v>
       </c>
       <c r="M23">
-        <v>0.8976773345494101</v>
+        <v>1.000678187788766</v>
       </c>
       <c r="N23">
-        <v>0.9882162874061997</v>
+        <v>1.006903778894003</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9328227731652881</v>
+        <v>1.003598783033373</v>
       </c>
       <c r="D24">
-        <v>0.9442369760630602</v>
+        <v>1.006526439886278</v>
       </c>
       <c r="E24">
-        <v>0.9493597077748313</v>
+        <v>1.006822466066262</v>
       </c>
       <c r="F24">
-        <v>0.8964754625204515</v>
+        <v>0.9997474611321396</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9631766797809135</v>
+        <v>1.010014496620955</v>
       </c>
       <c r="K24">
-        <v>0.9593196271813483</v>
+        <v>1.010002682926594</v>
       </c>
       <c r="L24">
-        <v>0.9643385816683487</v>
+        <v>1.010297608462272</v>
       </c>
       <c r="M24">
-        <v>0.9126021924587522</v>
+        <v>1.003249106403019</v>
       </c>
       <c r="N24">
-        <v>0.9908815409152206</v>
+        <v>1.007366121443385</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9447902316876239</v>
+        <v>1.005779985857745</v>
       </c>
       <c r="D25">
-        <v>0.9547512174199171</v>
+        <v>1.008550097602331</v>
       </c>
       <c r="E25">
-        <v>0.9590257074148688</v>
+        <v>1.008686993834474</v>
       </c>
       <c r="F25">
-        <v>0.9145534567294389</v>
+        <v>1.00306518222948</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9713300180825455</v>
+        <v>1.011559783695783</v>
       </c>
       <c r="K25">
-        <v>0.9680950741341495</v>
+        <v>1.01169080246928</v>
       </c>
       <c r="L25">
-        <v>0.97229524338104</v>
+        <v>1.011827242669469</v>
       </c>
       <c r="M25">
-        <v>0.9286408352927159</v>
+        <v>1.006224271044895</v>
       </c>
       <c r="N25">
-        <v>0.9937758828440021</v>
+        <v>1.007899520777064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_190/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_190/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007517189882853</v>
+        <v>0.9537971171499724</v>
       </c>
       <c r="D2">
-        <v>1.010163023887673</v>
+        <v>0.9626915382724373</v>
       </c>
       <c r="E2">
-        <v>1.010173097929085</v>
+        <v>0.966333183350038</v>
       </c>
       <c r="F2">
-        <v>1.005706564766229</v>
+        <v>0.9280223635356766</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.012788370573424</v>
+        <v>0.9774533881121106</v>
       </c>
       <c r="K2">
-        <v>1.013034046953649</v>
+        <v>0.9746963279527376</v>
       </c>
       <c r="L2">
-        <v>1.013044090525428</v>
+        <v>0.9782823679263926</v>
       </c>
       <c r="M2">
-        <v>1.008591131989706</v>
+        <v>0.9405847049772205</v>
       </c>
       <c r="N2">
-        <v>1.008322484023764</v>
+        <v>0.9959467723440666</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008777202253876</v>
+        <v>0.9600648028843317</v>
       </c>
       <c r="D3">
-        <v>1.011333579330225</v>
+        <v>0.9682312821963862</v>
       </c>
       <c r="E3">
-        <v>1.011251613067968</v>
+        <v>0.9714350341267636</v>
       </c>
       <c r="F3">
-        <v>1.007621938967665</v>
+        <v>0.9373354692858983</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.013678231869978</v>
+        <v>0.9817066865569073</v>
       </c>
       <c r="K3">
-        <v>1.014007589187392</v>
+        <v>0.9792874618992016</v>
       </c>
       <c r="L3">
-        <v>1.013925852672849</v>
+        <v>0.9824469443727204</v>
       </c>
       <c r="M3">
-        <v>1.010306393046803</v>
+        <v>0.9488383330197356</v>
       </c>
       <c r="N3">
-        <v>1.008628179638942</v>
+        <v>0.9974524023253389</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009591924433953</v>
+        <v>0.9640058749637735</v>
       </c>
       <c r="D4">
-        <v>1.012090770948062</v>
+        <v>0.9717207995481795</v>
       </c>
       <c r="E4">
-        <v>1.011949264209806</v>
+        <v>0.9746501524728302</v>
       </c>
       <c r="F4">
-        <v>1.008860251563744</v>
+        <v>0.943169173799732</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.014253038152566</v>
+        <v>0.9843773869455729</v>
       </c>
       <c r="K4">
-        <v>1.014636742348009</v>
+        <v>0.9821729530360935</v>
       </c>
       <c r="L4">
-        <v>1.014495612020765</v>
+        <v>0.9850644728724032</v>
       </c>
       <c r="M4">
-        <v>1.011414844666994</v>
+        <v>0.9540056041810349</v>
       </c>
       <c r="N4">
-        <v>1.008825338359081</v>
+        <v>0.9983965650709835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009934297215639</v>
+        <v>0.965636806815778</v>
       </c>
       <c r="D5">
-        <v>1.012409041674543</v>
+        <v>0.9731662866461728</v>
       </c>
       <c r="E5">
-        <v>1.012242507248352</v>
+        <v>0.975982283850986</v>
       </c>
       <c r="F5">
-        <v>1.009380597362823</v>
+        <v>0.945578667568124</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.014494452321081</v>
+        <v>0.9854816838371556</v>
       </c>
       <c r="K5">
-        <v>1.014901051889395</v>
+        <v>0.9833666927835217</v>
       </c>
       <c r="L5">
-        <v>1.014734950459729</v>
+        <v>0.9861473667712835</v>
       </c>
       <c r="M5">
-        <v>1.011880505766299</v>
+        <v>0.9561391117599354</v>
       </c>
       <c r="N5">
-        <v>1.008908069990505</v>
+        <v>0.9987866381460087</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00999177525264</v>
+        <v>0.965909170937964</v>
       </c>
       <c r="D6">
-        <v>1.012462477755981</v>
+        <v>0.9734077636447825</v>
       </c>
       <c r="E6">
-        <v>1.012291741235623</v>
+        <v>0.9762048414548712</v>
       </c>
       <c r="F6">
-        <v>1.009467951983473</v>
+        <v>0.9459807950915087</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.014534973177195</v>
+        <v>0.9856660458366662</v>
       </c>
       <c r="K6">
-        <v>1.014945419794748</v>
+        <v>0.9835660240689648</v>
       </c>
       <c r="L6">
-        <v>1.014775125478151</v>
+        <v>0.9863281891105298</v>
       </c>
       <c r="M6">
-        <v>1.011958673196528</v>
+        <v>0.9564951345367907</v>
       </c>
       <c r="N6">
-        <v>1.00892195199838</v>
+        <v>0.9988517408451794</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009596499765874</v>
+        <v>0.9640277673819</v>
       </c>
       <c r="D7">
-        <v>1.012095023899101</v>
+        <v>0.9717401971424301</v>
       </c>
       <c r="E7">
-        <v>1.011953182728163</v>
+        <v>0.9746680277135117</v>
       </c>
       <c r="F7">
-        <v>1.008867205379284</v>
+        <v>0.9432015346588883</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.014256264857257</v>
+        <v>0.9843922138652219</v>
       </c>
       <c r="K7">
-        <v>1.014640274793233</v>
+        <v>0.9821889783832887</v>
       </c>
       <c r="L7">
-        <v>1.014498810809175</v>
+        <v>0.9850790101492164</v>
       </c>
       <c r="M7">
-        <v>1.01142106814292</v>
+        <v>0.9540342613559862</v>
       </c>
       <c r="N7">
-        <v>1.008826444426729</v>
+        <v>0.9984018037352062</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007943142064123</v>
+        <v>0.9559399885389546</v>
       </c>
       <c r="D8">
-        <v>1.010558669789743</v>
+        <v>0.9645841944612134</v>
       </c>
       <c r="E8">
-        <v>1.010537634729582</v>
+        <v>0.9680759102850736</v>
       </c>
       <c r="F8">
-        <v>1.006354102649742</v>
+        <v>0.9312115887384298</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.013089311152642</v>
+        <v>0.9789083332406545</v>
       </c>
       <c r="K8">
-        <v>1.013363226625048</v>
+        <v>0.9762662712700083</v>
       </c>
       <c r="L8">
-        <v>1.01334225360938</v>
+        <v>0.9797064111034651</v>
       </c>
       <c r="M8">
-        <v>1.009171117304427</v>
+        <v>0.9434116643299054</v>
       </c>
       <c r="N8">
-        <v>1.008425929781417</v>
+        <v>0.9964620550533292</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005024977690948</v>
+        <v>0.9407347452529078</v>
       </c>
       <c r="D9">
-        <v>1.007849435501134</v>
+        <v>0.9511836520921154</v>
       </c>
       <c r="E9">
-        <v>1.008041425703835</v>
+        <v>0.955744596446281</v>
       </c>
       <c r="F9">
-        <v>1.001916947197381</v>
+        <v>0.9084521315412071</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.011025225612804</v>
+        <v>0.9685690710358476</v>
       </c>
       <c r="K9">
-        <v>1.011106664175804</v>
+        <v>0.9651217195819848</v>
       </c>
       <c r="L9">
-        <v>1.011297989151956</v>
+        <v>0.9695989578122364</v>
       </c>
       <c r="M9">
-        <v>1.00519486974853</v>
+        <v>0.9232284206858136</v>
       </c>
       <c r="N9">
-        <v>1.007715175401641</v>
+        <v>0.9927961377247759</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003076043972148</v>
+        <v>0.9298357956798623</v>
       </c>
       <c r="D10">
-        <v>1.006041700691044</v>
+        <v>0.9416189554412906</v>
       </c>
       <c r="E10">
-        <v>1.006375848360975</v>
+        <v>0.9469548441013151</v>
       </c>
       <c r="F10">
-        <v>0.9989521099072133</v>
+        <v>0.8919267070123293</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.009643729766757</v>
+        <v>0.9611390254980128</v>
       </c>
       <c r="K10">
-        <v>1.009597866282022</v>
+        <v>0.9571288604573674</v>
       </c>
       <c r="L10">
-        <v>1.009930740491634</v>
+        <v>0.9623527771797761</v>
       </c>
       <c r="M10">
-        <v>1.002535517254903</v>
+        <v>0.9085660682437228</v>
       </c>
       <c r="N10">
-        <v>1.007237918939261</v>
+        <v>0.9901578250515651</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002231237537959</v>
+        <v>0.9249035306098324</v>
       </c>
       <c r="D11">
-        <v>1.005258501728547</v>
+        <v>0.9373012847178782</v>
       </c>
       <c r="E11">
-        <v>1.005654247396487</v>
+        <v>0.9429905046023079</v>
       </c>
       <c r="F11">
-        <v>0.9976665156659683</v>
+        <v>0.8843801549781145</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.009044187569629</v>
+        <v>0.9577722577961635</v>
       </c>
       <c r="K11">
-        <v>1.008943439922908</v>
+        <v>0.9535110800142947</v>
       </c>
       <c r="L11">
-        <v>1.009337617796226</v>
+        <v>0.9590740403655167</v>
       </c>
       <c r="M11">
-        <v>1.001381798509034</v>
+        <v>0.9018701341497586</v>
       </c>
       <c r="N11">
-        <v>1.007030436511823</v>
+        <v>0.9889619150094551</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001917296819953</v>
+        <v>0.9230362601162743</v>
       </c>
       <c r="D12">
-        <v>1.004967516128487</v>
+        <v>0.9356684125822398</v>
       </c>
       <c r="E12">
-        <v>1.005386149240515</v>
+        <v>0.9414918526825046</v>
       </c>
       <c r="F12">
-        <v>0.9971887018993026</v>
+        <v>0.8815110840514602</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.008821284461941</v>
+        <v>0.9564970132141406</v>
       </c>
       <c r="K12">
-        <v>1.008700186052415</v>
+        <v>0.9521413864015017</v>
       </c>
       <c r="L12">
-        <v>1.009117137245418</v>
+        <v>0.9578329090683229</v>
       </c>
       <c r="M12">
-        <v>1.000952910667623</v>
+        <v>0.8993245931356871</v>
       </c>
       <c r="N12">
-        <v>1.006953242781246</v>
+        <v>0.9885089209977196</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001984644691728</v>
+        <v>0.9234384459628695</v>
       </c>
       <c r="D13">
-        <v>1.005029936802072</v>
+        <v>0.9360200325516908</v>
       </c>
       <c r="E13">
-        <v>1.005443660141311</v>
+        <v>0.9418145417863306</v>
       </c>
       <c r="F13">
-        <v>0.997291207817982</v>
+        <v>0.8821296230765693</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.008869107346712</v>
+        <v>0.9567717134030774</v>
       </c>
       <c r="K13">
-        <v>1.008752372633972</v>
+        <v>0.9524364030449005</v>
       </c>
       <c r="L13">
-        <v>1.009164438753571</v>
+        <v>0.9581002251289248</v>
       </c>
       <c r="M13">
-        <v>1.001044924427577</v>
+        <v>0.8998733735299064</v>
       </c>
       <c r="N13">
-        <v>1.006969806798484</v>
+        <v>0.9886065001707752</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002205290031676</v>
+        <v>0.9247499199379949</v>
       </c>
       <c r="D14">
-        <v>1.005234450237169</v>
+        <v>0.9371669212209575</v>
       </c>
       <c r="E14">
-        <v>1.005632087636969</v>
+        <v>0.9428671731116349</v>
       </c>
       <c r="F14">
-        <v>0.9976270253773073</v>
+        <v>0.8841443880827151</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.009025766565623</v>
+        <v>0.9576673630799304</v>
       </c>
       <c r="K14">
-        <v>1.00892333599205</v>
+        <v>0.9533984035391413</v>
       </c>
       <c r="L14">
-        <v>1.009319396262326</v>
+        <v>0.9589719356438168</v>
       </c>
       <c r="M14">
-        <v>1.001346353635605</v>
+        <v>0.9016609495565537</v>
       </c>
       <c r="N14">
-        <v>1.007024058221722</v>
+        <v>0.9889246541694635</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002341217912532</v>
+        <v>0.9255531928686946</v>
       </c>
       <c r="D15">
-        <v>1.005360448208953</v>
+        <v>0.9378696159891895</v>
       </c>
       <c r="E15">
-        <v>1.005748175508192</v>
+        <v>0.9435121973164956</v>
       </c>
       <c r="F15">
-        <v>0.9978338951597572</v>
+        <v>0.8853767761400875</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.009122261995733</v>
+        <v>0.9582158605661256</v>
       </c>
       <c r="K15">
-        <v>1.00902864939447</v>
+        <v>0.9539876177453123</v>
       </c>
       <c r="L15">
-        <v>1.009414848270602</v>
+        <v>0.9595058758140318</v>
       </c>
       <c r="M15">
-        <v>1.001532027921628</v>
+        <v>0.9027543947474594</v>
       </c>
       <c r="N15">
-        <v>1.007057467644408</v>
+        <v>0.9891194918930233</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003132091409819</v>
+        <v>0.9301583832888216</v>
       </c>
       <c r="D16">
-        <v>1.006093669388492</v>
+        <v>0.9419015780737896</v>
       </c>
       <c r="E16">
-        <v>1.00642372997058</v>
+        <v>0.9472144169417001</v>
       </c>
       <c r="F16">
-        <v>0.9990373912417067</v>
+        <v>0.8924187219687723</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.00968349069489</v>
+        <v>0.9613591350449325</v>
       </c>
       <c r="K16">
-        <v>1.009641274701102</v>
+        <v>0.9573654655177248</v>
       </c>
       <c r="L16">
-        <v>1.009970080692238</v>
+        <v>0.9625672339840754</v>
       </c>
       <c r="M16">
-        <v>1.002612038143036</v>
+        <v>0.9090026347793049</v>
       </c>
       <c r="N16">
-        <v>1.007251671330573</v>
+        <v>0.9902360055535712</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003627938879378</v>
+        <v>0.9329879561640488</v>
       </c>
       <c r="D17">
-        <v>1.006553479023196</v>
+        <v>0.9443818272699639</v>
       </c>
       <c r="E17">
-        <v>1.006847378814025</v>
+        <v>0.9494927887325714</v>
       </c>
       <c r="F17">
-        <v>0.9997918190738039</v>
+        <v>0.8967265604944015</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.010035171399794</v>
+        <v>0.9632893353390779</v>
       </c>
       <c r="K17">
-        <v>1.010025258865606</v>
+        <v>0.9594407745807584</v>
       </c>
       <c r="L17">
-        <v>1.010318067441776</v>
+        <v>0.9644484020215398</v>
       </c>
       <c r="M17">
-        <v>1.003288900350847</v>
+        <v>0.9128249912049941</v>
       </c>
       <c r="N17">
-        <v>1.007373267829813</v>
+        <v>0.9909215501566937</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003917071380771</v>
+        <v>0.9346180915891467</v>
       </c>
       <c r="D18">
-        <v>1.00682163628692</v>
+        <v>0.9458117212262624</v>
       </c>
       <c r="E18">
-        <v>1.007094448185242</v>
+        <v>0.9508066230603354</v>
       </c>
       <c r="F18">
-        <v>1.000231691490648</v>
+        <v>0.8992020764573717</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.010240171289094</v>
+        <v>0.9644009286640459</v>
       </c>
       <c r="K18">
-        <v>1.010249123836221</v>
+        <v>0.9606363103976783</v>
       </c>
       <c r="L18">
-        <v>1.010520936836497</v>
+        <v>0.965532196320207</v>
       </c>
       <c r="M18">
-        <v>1.003683491195755</v>
+        <v>0.9150214943211059</v>
       </c>
       <c r="N18">
-        <v>1.007444113279416</v>
+        <v>0.9913163098439061</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004015643525776</v>
+        <v>0.9351705715859697</v>
       </c>
       <c r="D19">
-        <v>1.006913064020034</v>
+        <v>0.946296503806323</v>
       </c>
       <c r="E19">
-        <v>1.007178686161864</v>
+        <v>0.9512521107316975</v>
       </c>
       <c r="F19">
-        <v>1.000381647839342</v>
+        <v>0.9000400579721108</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.010310049115234</v>
+        <v>0.9647775966426732</v>
       </c>
       <c r="K19">
-        <v>1.010325438077179</v>
+        <v>0.9610414855829988</v>
       </c>
       <c r="L19">
-        <v>1.010590092297764</v>
+        <v>0.9658995171916934</v>
       </c>
       <c r="M19">
-        <v>1.003818001053591</v>
+        <v>0.9157650185012788</v>
       </c>
       <c r="N19">
-        <v>1.007468256260234</v>
+        <v>0.9914500672773807</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003574748174463</v>
+        <v>0.9326864919445743</v>
       </c>
       <c r="D20">
-        <v>1.006504150171866</v>
+        <v>0.94411747490669</v>
       </c>
       <c r="E20">
-        <v>1.006801929245292</v>
+        <v>0.9492499188191127</v>
       </c>
       <c r="F20">
-        <v>0.9997108940757602</v>
+        <v>0.8962682634790595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.009997452816174</v>
+        <v>0.9630837330544816</v>
       </c>
       <c r="K20">
-        <v>1.009984072046662</v>
+        <v>0.9592196763650742</v>
       </c>
       <c r="L20">
-        <v>1.010280742685765</v>
+        <v>0.9642479766121744</v>
       </c>
       <c r="M20">
-        <v>1.003216301416195</v>
+        <v>0.9124183449660407</v>
       </c>
       <c r="N20">
-        <v>1.007360229932181</v>
+        <v>0.9908485309528742</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002140319446499</v>
+        <v>0.9243647236178948</v>
       </c>
       <c r="D21">
-        <v>1.005174228116869</v>
+        <v>0.9368300174668031</v>
       </c>
       <c r="E21">
-        <v>1.005576602219859</v>
+        <v>0.9425579409069333</v>
       </c>
       <c r="F21">
-        <v>0.9975281435260565</v>
+        <v>0.8835529745674865</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.008979640063875</v>
+        <v>0.9574043172380805</v>
       </c>
       <c r="K21">
-        <v>1.008872996294841</v>
+        <v>0.9531158534700641</v>
       </c>
       <c r="L21">
-        <v>1.009273769817298</v>
+        <v>0.958715898900008</v>
       </c>
       <c r="M21">
-        <v>1.001257599897156</v>
+        <v>0.9011362197293894</v>
       </c>
       <c r="N21">
-        <v>1.007008086004692</v>
+        <v>0.988831214620486</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001237612647247</v>
+        <v>0.9189268411737774</v>
       </c>
       <c r="D22">
-        <v>1.004337642242208</v>
+        <v>0.9320781493052721</v>
       </c>
       <c r="E22">
-        <v>1.004805821458388</v>
+        <v>0.9381978887064562</v>
       </c>
       <c r="F22">
-        <v>0.9961540939351058</v>
+        <v>0.8751722870297109</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.00833850422362</v>
+        <v>0.9536893144221934</v>
       </c>
       <c r="K22">
-        <v>1.008173428531071</v>
+        <v>0.949126930794468</v>
       </c>
       <c r="L22">
-        <v>1.008639669918192</v>
+        <v>0.9551018128882202</v>
       </c>
       <c r="M22">
-        <v>1.000024081236138</v>
+        <v>0.8937010582421507</v>
       </c>
       <c r="N22">
-        <v>1.006785952305349</v>
+        <v>0.9875115978922938</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001716234765744</v>
+        <v>0.9218302613229803</v>
       </c>
       <c r="D23">
-        <v>1.004781172838824</v>
+        <v>0.9346143021411083</v>
       </c>
       <c r="E23">
-        <v>1.005214463276155</v>
+        <v>0.9405245663640208</v>
       </c>
       <c r="F23">
-        <v>0.9968826672004006</v>
+        <v>0.8796543935683215</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.008678497332355</v>
+        <v>0.955673199924032</v>
       </c>
       <c r="K23">
-        <v>1.008544378016596</v>
+        <v>0.9512567392546503</v>
       </c>
       <c r="L23">
-        <v>1.00897591209132</v>
+        <v>0.9570313584261817</v>
       </c>
       <c r="M23">
-        <v>1.000678187788766</v>
+        <v>0.8976773345494125</v>
       </c>
       <c r="N23">
-        <v>1.006903778894003</v>
+        <v>0.9882162874062003</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003598783033373</v>
+        <v>0.9328227731652882</v>
       </c>
       <c r="D24">
-        <v>1.006526439886278</v>
+        <v>0.9442369760630607</v>
       </c>
       <c r="E24">
-        <v>1.006822466066262</v>
+        <v>0.9493597077748313</v>
       </c>
       <c r="F24">
-        <v>0.9997474611321396</v>
+        <v>0.8964754625204517</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.010014496620955</v>
+        <v>0.9631766797809137</v>
       </c>
       <c r="K24">
-        <v>1.010002682926594</v>
+        <v>0.9593196271813488</v>
       </c>
       <c r="L24">
-        <v>1.010297608462272</v>
+        <v>0.9643385816683488</v>
       </c>
       <c r="M24">
-        <v>1.003249106403019</v>
+        <v>0.9126021924587523</v>
       </c>
       <c r="N24">
-        <v>1.007366121443385</v>
+        <v>0.9908815409152207</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005779985857745</v>
+        <v>0.9447902316876238</v>
       </c>
       <c r="D25">
-        <v>1.008550097602331</v>
+        <v>0.9547512174199169</v>
       </c>
       <c r="E25">
-        <v>1.008686993834474</v>
+        <v>0.9590257074148686</v>
       </c>
       <c r="F25">
-        <v>1.00306518222948</v>
+        <v>0.9145534567294389</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.011559783695783</v>
+        <v>0.9713300180825453</v>
       </c>
       <c r="K25">
-        <v>1.01169080246928</v>
+        <v>0.9680950741341491</v>
       </c>
       <c r="L25">
-        <v>1.011827242669469</v>
+        <v>0.9722952433810399</v>
       </c>
       <c r="M25">
-        <v>1.006224271044895</v>
+        <v>0.9286408352927158</v>
       </c>
       <c r="N25">
-        <v>1.007899520777064</v>
+        <v>0.9937758828440021</v>
       </c>
     </row>
   </sheetData>
